--- a/averages.xlsx
+++ b/averages.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycebadura/Documents/Junior Year/Ople/ople-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycebadura/Documents/Junior Year/Ople/mlens-exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD403F-5C32-F246-8955-175E8ADE89FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A646AD-11A8-FA41-8AB0-8C2EDA71BFED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17360" windowHeight="16120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>Descriptor</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>super_xgb</t>
-  </si>
-  <si>
-    <t>mtrain</t>
   </si>
   <si>
     <t>ecoli</t>
@@ -292,108 +289,17 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.79300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.80400000000000005</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Sheet1!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.506</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.251999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.649000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.597999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.213000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.575000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.661999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0709999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.3979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.863</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,255 +401,58 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$31</c:f>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.70699999999999996</c:v>
+                  <c:v>0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73199999999999998</c:v>
+                  <c:v>0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70299999999999996</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69399999999999995</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65300000000000002</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58899999999999997</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60699999999999998</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0.91900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59799999999999998</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61799999999999999</c:v>
+                  <c:v>0.92100000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>21.603999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.853000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.396999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.355</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.799000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>114.956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>131.85499999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.651000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1279999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50.328000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.948</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6459999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F992-4C41-A0C1-337837C3F859}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2074283640"/>
-        <c:axId val="-2074280680"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2074283640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074280680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2074280680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074283640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$34:$C$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.96399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.92100000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$34:$D$47</c:f>
+              <c:f>Sheet1!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -856,7 +565,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -889,7 +598,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$50:$C$63</c:f>
+              <c:f>Sheet1!$C$18:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -940,7 +649,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$50:$D$63</c:f>
+              <c:f>Sheet1!$D$18:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1053,7 +762,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1086,7 +795,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$66:$C$79</c:f>
+              <c:f>Sheet1!$C$34:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1122,7 +831,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$66:$D$79</c:f>
+              <c:f>Sheet1!$D$34:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1220,7 +929,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1253,7 +962,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$82:$C$95</c:f>
+              <c:f>Sheet1!$C$50:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1304,7 +1013,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$82:$D$95</c:f>
+              <c:f>Sheet1!$D$50:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1417,7 +1126,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1450,7 +1159,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$108:$C$110</c:f>
+              <c:f>Sheet1!$C$76:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1468,7 +1177,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$108:$D$110</c:f>
+              <c:f>Sheet1!$D$76:$D$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1559,8 +1268,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1589,21 +1298,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17780</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>189230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,23 +1334,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>189230</xdr:rowOff>
+      <xdr:colOff>688340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,21 +1374,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>688340</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,21 +1412,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>688340</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,51 +1450,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>688340</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>151130</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>688340</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1807,7 +1478,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2138,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2167,100 +1838,100 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>0.64</v>
-      </c>
-      <c r="D2">
-        <v>13.506</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E16" si="0">(C2/D2)*100</f>
-        <v>4.738634680882571</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E9" si="0">(C2/D2)*100</f>
+        <v>41.986062717770032</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.86399999999999999</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D3">
-        <v>20.251999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>4.2662453091052734</v>
+        <v>35.441176470588232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20.649000000000001</v>
-      </c>
-      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D4">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>4.2132790934185671</v>
+        <v>25.881086898036049</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.63900000000000001</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D5">
-        <v>18.597999999999999</v>
+        <v>5.6070000000000002</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.435853317561028</v>
+        <v>16.818262885678614</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0.84099999999999997</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D6">
-        <v>25.890999999999998</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.248232976710054</v>
+        <v>16.724496877168633</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.87</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D7">
-        <v>26.85</v>
+        <v>7.9169999999999998</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.2402234636871508</v>
+        <v>11.911077428318807</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2268,14 +1939,14 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.86</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D8">
-        <v>27.213000000000001</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.1602542902289343</v>
+        <v>11.681845780206435</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2283,14 +1954,14 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.83699999999999997</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D9">
-        <v>32.575000000000003</v>
+        <v>15.237</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>2.5694551036070603</v>
+        <v>6.3135787884754215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2298,445 +1969,440 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0.64800000000000002</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D10">
-        <v>25.661999999999999</v>
+        <v>14.959</v>
       </c>
       <c r="E10">
-        <f>(C10/D10)*100</f>
-        <v>2.5251344400280571</v>
+        <f t="shared" ref="E10:E16" si="1">(C10/D10)*100</f>
+        <v>6.3038973193395282</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0.79700000000000004</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D11">
-        <v>4.0709999999999997</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E11">
-        <f>(C11/D11)*100</f>
-        <v>19.577499385900275</v>
+        <f t="shared" si="1"/>
+        <v>165.86206896551724</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.82599999999999996</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D12">
-        <v>2.0230000000000001</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="E12">
-        <f>(C12/D12)*100</f>
-        <v>40.830449826989614</v>
+        <f t="shared" si="1"/>
+        <v>145.64183835182251</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>0.79300000000000004</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D13">
-        <v>6.3979999999999997</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="E13">
-        <f>(C13/D13)*100</f>
-        <v>12.394498280712723</v>
+        <f t="shared" si="1"/>
+        <v>125.75957727873184</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>0.83</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="D14">
-        <v>2.863</v>
+        <v>0.78</v>
       </c>
       <c r="E14">
-        <f>(C14/D14)*100</f>
-        <v>28.990569332867622</v>
+        <f t="shared" si="1"/>
+        <v>119.61538461538461</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>0.83399999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D15">
-        <v>2.5739999999999998</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="E15">
-        <f>(C15/D15)*100</f>
-        <v>32.400932400932405</v>
+        <f t="shared" si="1"/>
+        <v>137.66816143497758</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>0.80400000000000005</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D16">
-        <v>5.76</v>
+        <v>0.62</v>
       </c>
       <c r="E16">
-        <f>(C16/D16)*100</f>
-        <v>13.958333333333334</v>
+        <f t="shared" si="1"/>
+        <v>154.03225806451613</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>0.70699999999999996</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D18">
-        <v>21.603999999999999</v>
+        <v>5.944</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E32" si="1">(C18/D18)*100</f>
-        <v>3.2725421218292907</v>
+        <f t="shared" ref="E18:E25" si="2">(C18/D18)*100</f>
+        <v>12.870121130551818</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <v>25.853000000000002</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8313928751015354</v>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D19">
+        <v>6.2850000000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>12.140015910898965</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>0.70299999999999996</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D20">
-        <v>29.396999999999998</v>
+        <v>7.17</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>2.3914004830424873</v>
+        <f t="shared" si="2"/>
+        <v>10.669456066945607</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D21">
-        <v>30.355</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>2.2862790314610444</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1222235419883599</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>0.73399999999999999</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D22">
-        <v>33.802</v>
+        <v>8.8170000000000002</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>2.1714691438376428</v>
+        <f t="shared" si="2"/>
+        <v>8.6764205512078938</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>0.65300000000000002</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D23">
-        <v>34.640999999999998</v>
+        <v>8.9589999999999996</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>1.885049507808666</v>
+        <f t="shared" si="2"/>
+        <v>8.5388994307400381</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.58899999999999997</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="D24">
-        <v>83.799000000000007</v>
+        <v>9.8610000000000007</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.70287234931204423</v>
+        <f t="shared" si="2"/>
+        <v>7.7375519724165898</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>0.58499999999999996</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D25">
-        <v>114.956</v>
+        <v>15.727</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.50889035805003657</v>
+        <f t="shared" si="2"/>
+        <v>4.86424620080117</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.60699999999999998</v>
+        <v>0.749</v>
       </c>
       <c r="D26">
-        <v>131.85499999999999</v>
+        <v>16.007999999999999</v>
       </c>
       <c r="E26">
-        <f>(C26/D26)*100</f>
-        <v>0.46035417693678665</v>
+        <f t="shared" ref="E26:E32" si="3">(C26/D26)*100</f>
+        <v>4.6789105447276365</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>0.75</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D27">
-        <v>35.651000000000003</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E27">
-        <f>(C27/D27)*100</f>
-        <v>2.10372780567165</v>
+        <f t="shared" si="3"/>
+        <v>125.51020408163265</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>0.6</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D28">
-        <v>1.1279999999999999</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="E28">
-        <f>(C28/D28)*100</f>
-        <v>53.191489361702125</v>
+        <f t="shared" si="3"/>
+        <v>116.03773584905662</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>0.73</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D29">
-        <v>50.328000000000003</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="E29">
-        <f>(C29/D29)*100</f>
-        <v>1.4504848195835318</v>
+        <f t="shared" si="3"/>
+        <v>92.830188679245268</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>0.59799999999999998</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D30">
-        <v>1.948</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E30">
-        <f>(C30/D30)*100</f>
-        <v>30.698151950718682</v>
+        <f t="shared" si="3"/>
+        <v>91.563275434243181</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>0.61799999999999999</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D31">
-        <v>1.6459999999999999</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="E31">
-        <f>(C31/D31)*100</f>
-        <v>37.545565006075336</v>
+        <f t="shared" si="3"/>
+        <v>107.58017492711369</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>0.75600000000000001</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D32">
-        <v>51.255000000000003</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E32">
-        <f>(C32/D32)*100</f>
-        <v>1.4749780509218613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>0.75600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>100.13568521031209</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1">
-        <v>0.96399999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D34" s="1">
-        <v>2.2959999999999998</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E48" si="2">(C34/D34)*100</f>
-        <v>41.986062717770032</v>
+        <f t="shared" ref="E34:E41" si="4">(C34/D34)*100</f>
+        <v>18.648947951273534</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>0.96399999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D35">
-        <v>2.72</v>
+        <v>5.2939999999999996</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>35.441176470588232</v>
+        <f t="shared" si="4"/>
+        <v>15.904797884397432</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>0.96199999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D36">
-        <v>3.7170000000000001</v>
+        <v>5.3570000000000002</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>25.881086898036049</v>
+        <f t="shared" si="4"/>
+        <v>15.71775247339929</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>0.94299999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D37">
-        <v>5.6070000000000002</v>
+        <v>5.6340000000000003</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>16.818262885678614</v>
+        <f t="shared" si="4"/>
+        <v>14.944976925807596</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>0.96399999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D38">
-        <v>5.7640000000000002</v>
+        <v>7.5060000000000002</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>16.724496877168633</v>
+        <f t="shared" si="4"/>
+        <v>11.217692512656541</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>0.94299999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D39">
-        <v>7.9169999999999998</v>
+        <v>7.5519999999999996</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>11.911077428318807</v>
+        <f t="shared" si="4"/>
+        <v>11.149364406779663</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>0.96199999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D40">
-        <v>8.2349999999999994</v>
+        <v>9.2140000000000004</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>11.681845780206435</v>
+        <f t="shared" si="4"/>
+        <v>9.1382678532667665</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2744,14 +2410,14 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>0.96199999999999997</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D41">
-        <v>15.237</v>
+        <v>14.224</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>6.3135787884754215</v>
+        <f t="shared" si="4"/>
+        <v>6.1023622047244093</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2759,104 +2425,44 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>0.94299999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D42">
-        <v>14.959</v>
+        <v>14.127000000000001</v>
       </c>
       <c r="E42">
         <f>(C42/D42)*100</f>
-        <v>6.3038973193395282</v>
+        <v>5.9602180222269405</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="D43">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E43">
-        <f>(C43/D43)*100</f>
-        <v>165.86206896551724</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="D44">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="E44">
-        <f>(C44/D44)*100</f>
-        <v>145.64183835182251</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="D45">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="E45">
-        <f>(C45/D45)*100</f>
-        <v>125.75957727873184</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D46">
-        <v>0.78</v>
-      </c>
-      <c r="E46">
-        <f>(C46/D46)*100</f>
-        <v>119.61538461538461</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="D47">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="E47">
-        <f>(C47/D47)*100</f>
-        <v>137.66816143497758</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="D48">
-        <v>0.62</v>
-      </c>
-      <c r="E48">
-        <f>(C48/D48)*100</f>
-        <v>154.03225806451613</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2864,724 +2470,328 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="D50">
-        <v>5.944</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ref="E50:E64" si="3">(C50/D50)*100</f>
-        <v>12.870121130551818</v>
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ref="E50:E57" si="5">(C50/D50)*100</f>
+        <v>35.18248175182481</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0.76300000000000001</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D51">
-        <v>6.2850000000000001</v>
+        <v>3.3740000000000001</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
-        <v>12.140015910898965</v>
+        <f t="shared" si="5"/>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>0.76500000000000001</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D52">
-        <v>7.17</v>
+        <v>4.1470000000000002</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
-        <v>10.669456066945607</v>
+        <f t="shared" si="5"/>
+        <v>22.739329635881358</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="D53" s="1">
-        <v>8.4190000000000005</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="3"/>
-        <v>9.1222235419883599</v>
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D53">
+        <v>6.6269999999999998</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>14.471103063226195</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>0.76500000000000001</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D54">
-        <v>8.8170000000000002</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
-        <v>8.6764205512078938</v>
+        <f t="shared" si="5"/>
+        <v>12.685577942735948</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>0.76500000000000001</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D55">
-        <v>8.9589999999999996</v>
+        <v>9.3339999999999996</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
-        <v>8.5388994307400381</v>
+        <f t="shared" si="5"/>
+        <v>10.252839082922648</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>0.76300000000000001</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D56">
-        <v>9.8610000000000007</v>
+        <v>10.448</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
-        <v>7.7375519724165898</v>
+        <f t="shared" si="5"/>
+        <v>9.073506891271057</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>0.76500000000000001</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D57">
-        <v>15.727</v>
+        <v>16.809000000000001</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
-        <v>4.86424620080117</v>
+        <f t="shared" si="5"/>
+        <v>5.7350229043964536</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>0.749</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="D58">
-        <v>16.007999999999999</v>
+        <v>16.398</v>
       </c>
       <c r="E58">
-        <f>(C58/D58)*100</f>
-        <v>4.6789105447276365</v>
+        <f t="shared" ref="E58:E64" si="6">(C58/D58)*100</f>
+        <v>5.6836199536528849</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <v>0.73799999999999999</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D59">
-        <v>0.58799999999999997</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E59">
-        <f>(C59/D59)*100</f>
-        <v>125.51020408163265</v>
+        <f t="shared" si="6"/>
+        <v>146.67747163695299</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>0.73799999999999999</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D60">
-        <v>0.63600000000000001</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="E60">
-        <f>(C60/D60)*100</f>
-        <v>116.03773584905662</v>
+        <f t="shared" si="6"/>
+        <v>143.05555555555557</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>0.73799999999999999</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D61">
-        <v>0.79500000000000004</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="E61">
-        <f>(C61/D61)*100</f>
-        <v>92.830188679245268</v>
+        <f t="shared" si="6"/>
+        <v>113.55081555834379</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62">
-        <v>0.73799999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D62">
-        <v>0.80600000000000005</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="E62">
-        <f>(C62/D62)*100</f>
-        <v>91.563275434243181</v>
+        <f t="shared" si="6"/>
+        <v>118.21608040201004</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63">
-        <v>0.73799999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D63">
-        <v>0.68600000000000005</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="E63">
-        <f>(C63/D63)*100</f>
-        <v>107.58017492711369</v>
+        <f t="shared" si="6"/>
+        <v>135.39568345323741</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64">
-        <v>0.73799999999999999</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D64">
-        <v>0.73699999999999999</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="E64">
-        <f>(C64/D64)*100</f>
-        <v>100.13568521031209</v>
+        <f t="shared" si="6"/>
+        <v>137.42514970059881</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D66" s="1">
-        <v>4.5149999999999997</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" ref="E66:E80" si="4">(C66/D66)*100</f>
-        <v>18.648947951273534</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D67">
-        <v>5.2939999999999996</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="4"/>
-        <v>15.904797884397432</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D68">
-        <v>5.3570000000000002</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="4"/>
-        <v>15.71775247339929</v>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D69">
-        <v>5.6340000000000003</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="4"/>
-        <v>14.944976925807596</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D70">
-        <v>7.5060000000000002</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="4"/>
-        <v>11.217692512656541</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D71">
-        <v>7.5519999999999996</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="4"/>
-        <v>11.149364406779663</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D72">
-        <v>9.2140000000000004</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="4"/>
-        <v>9.1382678532667665</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="D73">
-        <v>14.224</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="4"/>
-        <v>6.1023622047244093</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D74">
-        <v>14.127000000000001</v>
-      </c>
-      <c r="E74">
-        <f>(C74/D74)*100</f>
-        <v>5.9602180222269405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D76">
+        <v>75.811000000000007</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:E78" si="7">(C76/D76)*100</f>
+        <v>1.137038160689082</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="D77">
+        <v>56.838999999999999</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>1.5200830415735676</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2.74</v>
-      </c>
-      <c r="E82" s="1">
-        <f t="shared" ref="E82:E96" si="5">(C82/D82)*100</f>
-        <v>35.18248175182481</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="D83">
-        <v>3.3740000000000001</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="5"/>
-        <v>28.571428571428569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="D84">
-        <v>4.1470000000000002</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="5"/>
-        <v>22.739329635881358</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="D85">
-        <v>6.6269999999999998</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="5"/>
-        <v>14.471103063226195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="D86">
-        <v>7.5439999999999996</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="5"/>
-        <v>12.685577942735948</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="D87">
-        <v>9.3339999999999996</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="5"/>
-        <v>10.252839082922648</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="D88">
-        <v>10.448</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="5"/>
-        <v>9.073506891271057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="D89">
-        <v>16.809000000000001</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="5"/>
-        <v>5.7350229043964536</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="D90">
-        <v>16.398</v>
-      </c>
-      <c r="E90">
-        <f>(C90/D90)*100</f>
-        <v>5.6836199536528849</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D91">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E91">
-        <f>(C91/D91)*100</f>
-        <v>146.67747163695299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="D92">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="E92">
-        <f>(C92/D92)*100</f>
-        <v>143.05555555555557</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D93">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="E93">
-        <f>(C93/D93)*100</f>
-        <v>113.55081555834379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D94">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="E94">
-        <f>(C94/D94)*100</f>
-        <v>118.21608040201004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D95">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="E95">
-        <f>(C95/D95)*100</f>
-        <v>135.39568345323741</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="D96">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="E96">
-        <f>(C96/D96)*100</f>
-        <v>137.42514970059881</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D108">
-        <v>75.811000000000007</v>
-      </c>
-      <c r="E108">
-        <f t="shared" ref="E108:E110" si="6">(C108/D108)*100</f>
-        <v>1.137038160689082</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
         <v>22</v>
       </c>
-      <c r="C109">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="D109">
-        <v>56.838999999999999</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="6"/>
-        <v>1.5200830415735676</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110">
+      <c r="C78">
         <v>0.84499999999999997</v>
       </c>
-      <c r="D110">
+      <c r="D78">
         <v>87.415000000000006</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="6"/>
+      <c r="E78">
+        <f t="shared" si="7"/>
         <v>0.96665332036835772</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A82:E96">
-    <sortCondition descending="1" ref="E82"/>
+  <sortState ref="A50:E64">
+    <sortCondition descending="1" ref="E50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/averages.xlsx
+++ b/averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycebadura/Documents/Junior Year/Ople/mlens-exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A646AD-11A8-FA41-8AB0-8C2EDA71BFED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5110FDD7-9AAA-E243-92EB-A8DEDD290282}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17360" windowHeight="16120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Descriptor</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Runtime (avg)</t>
-  </si>
-  <si>
-    <t>obtrain</t>
   </si>
   <si>
     <t>sub_ada</t>
@@ -82,18 +79,6 @@
   </si>
   <si>
     <t>Ratio ((acc/time)*100)</t>
-  </si>
-  <si>
-    <t>original order</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>blend</t>
-  </si>
-  <si>
-    <t>sub</t>
   </si>
   <si>
     <t>blend_knc</t>
@@ -1085,136 +1070,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092270600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2092270600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076812552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$76:$C$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.86199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$76:$D$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>75.811000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56.838999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87.415000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D066-E14B-A1E4-29CEED604B0C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2076812552"/>
-        <c:axId val="-2092270600"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2076812552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1441,44 +1296,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>688340</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>151130</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE264E2-DAB1-8943-B109-2891D6307706}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1809,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1838,15 +1655,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>0.96399999999999997</v>
@@ -1861,7 +1678,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0.96399999999999997</v>
@@ -1876,7 +1693,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.96199999999999997</v>
@@ -1891,7 +1708,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0.94299999999999995</v>
@@ -1906,7 +1723,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0.96399999999999997</v>
@@ -1921,7 +1738,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0.94299999999999995</v>
@@ -1936,7 +1753,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0.96199999999999997</v>
@@ -1951,7 +1768,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0.96199999999999997</v>
@@ -1966,7 +1783,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0.94299999999999995</v>
@@ -1981,7 +1798,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>0.96199999999999997</v>
@@ -1996,7 +1813,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>0.91900000000000004</v>
@@ -2011,7 +1828,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0.95199999999999996</v>
@@ -2026,7 +1843,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>0.93300000000000005</v>
@@ -2041,7 +1858,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>0.92100000000000004</v>
@@ -2056,7 +1873,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>0.95499999999999996</v>
@@ -2071,10 +1888,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0.76500000000000001</v>
@@ -2089,7 +1906,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0.76300000000000001</v>
@@ -2104,7 +1921,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0.76500000000000001</v>
@@ -2119,7 +1936,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>0.76800000000000002</v>
@@ -2134,7 +1951,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>0.76500000000000001</v>
@@ -2149,7 +1966,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>0.76500000000000001</v>
@@ -2164,7 +1981,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>0.76300000000000001</v>
@@ -2179,7 +1996,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0.76500000000000001</v>
@@ -2194,7 +2011,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>0.749</v>
@@ -2209,7 +2026,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>0.73799999999999999</v>
@@ -2224,7 +2041,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>0.73799999999999999</v>
@@ -2239,7 +2056,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>0.73799999999999999</v>
@@ -2254,7 +2071,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>0.73799999999999999</v>
@@ -2269,7 +2086,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>0.73799999999999999</v>
@@ -2284,7 +2101,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>0.73799999999999999</v>
@@ -2299,10 +2116,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>0.84199999999999997</v>
@@ -2317,7 +2134,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>0.84199999999999997</v>
@@ -2332,7 +2149,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>0.84199999999999997</v>
@@ -2347,7 +2164,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>0.84199999999999997</v>
@@ -2362,7 +2179,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>0.84199999999999997</v>
@@ -2377,7 +2194,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>0.84199999999999997</v>
@@ -2392,7 +2209,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0.84199999999999997</v>
@@ -2407,7 +2224,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>0.86799999999999999</v>
@@ -2422,7 +2239,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0.84199999999999997</v>
@@ -2437,40 +2254,40 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
         <v>0.96399999999999997</v>
@@ -2485,7 +2302,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>0.96399999999999997</v>
@@ -2500,7 +2317,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>0.94299999999999995</v>
@@ -2515,7 +2332,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>0.95899999999999996</v>
@@ -2530,7 +2347,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>0.95699999999999996</v>
@@ -2545,7 +2362,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>0.95699999999999996</v>
@@ -2560,7 +2377,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>0.94799999999999995</v>
@@ -2575,7 +2392,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>0.96399999999999997</v>
@@ -2590,7 +2407,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0.93200000000000005</v>
@@ -2605,7 +2422,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>0.90500000000000003</v>
@@ -2620,7 +2437,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>0.92700000000000005</v>
@@ -2635,7 +2452,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>0.90500000000000003</v>
@@ -2650,7 +2467,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>0.94099999999999995</v>
@@ -2665,7 +2482,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>0.94099999999999995</v>
@@ -2680,7 +2497,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>0.91800000000000004</v>
@@ -2691,102 +2508,6 @@
       <c r="E64">
         <f t="shared" si="6"/>
         <v>137.42514970059881</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D76">
-        <v>75.811000000000007</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ref="E76:E78" si="7">(C76/D76)*100</f>
-        <v>1.137038160689082</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="D77">
-        <v>56.838999999999999</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="7"/>
-        <v>1.5200830415735676</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="D78">
-        <v>87.415000000000006</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="7"/>
-        <v>0.96665332036835772</v>
       </c>
     </row>
   </sheetData>
